--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed1/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.748699999999996</v>
+        <v>8.737899999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>5.8513</v>
+        <v>6.225399999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.3239</v>
+        <v>5.686199999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.110999999999998</v>
+        <v>6.3118</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.122799999999999</v>
+        <v>5.087499999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.596099999999986</v>
+        <v>9.676599999999985</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.304299999999989</v>
+        <v>9.235499999999991</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.063700000000003</v>
+        <v>5.739200000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.089600000000003</v>
+        <v>5.107700000000005</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -852,7 +852,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.286900000000002</v>
+        <v>5.864199999999999</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.583199999999997</v>
+        <v>6.893899999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.993799999999995</v>
+        <v>9.000999999999994</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.277600000000002</v>
+        <v>5.429000000000005</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.6204</v>
+        <v>5.713699999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.3965</v>
+        <v>5.777400000000003</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.998299999999996</v>
+        <v>5.020199999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.714</v>
+        <v>4.982100000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,7 +1300,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.425499999999999</v>
+        <v>5.553399999999995</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.894199999999996</v>
+        <v>5.768</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.246200000000002</v>
+        <v>9.053299999999998</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.816800000000001</v>
+        <v>8.837899999999996</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.991500000000002</v>
+        <v>9.034000000000004</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.895899999999998</v>
+        <v>4.987399999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.8734</v>
+        <v>6.5289</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
